--- a/ivtools/sampledata/Lassen.xlsx
+++ b/ivtools/sampledata/Lassen.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\emrl\Pool\Projekte\HGST-CERAM\Lassen_Test_Vehicle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t\py-ivtools\ivtools\sampledata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2AC23A-5210-4756-B6A4-8CB7102B2A78}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25260" windowHeight="8400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25260" windowHeight="8400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coupon_die" sheetId="2" r:id="rId1"/>
     <sheet name="module_info" sheetId="3" r:id="rId2"/>
     <sheet name="Lassen_dice_number_of_dies" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
   <si>
     <t>coupon_number</t>
   </si>
@@ -88,11 +97,17 @@
   <si>
     <t>018</t>
   </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>device_row</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +448,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -594,13 +645,24 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -921,16 +983,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C293"/>
   <sheetViews>
-    <sheetView topLeftCell="A279" workbookViewId="0">
+    <sheetView topLeftCell="A277" workbookViewId="0">
       <selection activeCell="C294" sqref="C294"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -941,7 +1004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -952,7 +1015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -963,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -974,7 +1037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -985,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -996,7 +1059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1007,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1018,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1029,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1040,7 +1103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1051,7 +1114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1062,7 +1125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
@@ -1073,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1084,7 +1147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1095,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7</v>
       </c>
@@ -1106,7 +1169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1117,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1128,7 +1191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1139,7 +1202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>8</v>
       </c>
@@ -1150,7 +1213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9</v>
       </c>
@@ -1161,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>9</v>
       </c>
@@ -1172,7 +1235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>9</v>
       </c>
@@ -1183,7 +1246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>9</v>
       </c>
@@ -1194,7 +1257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10</v>
       </c>
@@ -1205,7 +1268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>11</v>
       </c>
@@ -1216,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>11</v>
       </c>
@@ -1227,7 +1290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>11</v>
       </c>
@@ -1238,7 +1301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>11</v>
       </c>
@@ -1249,7 +1312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>12</v>
       </c>
@@ -1260,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>12</v>
       </c>
@@ -1271,7 +1334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>12</v>
       </c>
@@ -1282,7 +1345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>12</v>
       </c>
@@ -1293,7 +1356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>13</v>
       </c>
@@ -1304,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>13</v>
       </c>
@@ -1315,7 +1378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>13</v>
       </c>
@@ -1326,7 +1389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>13</v>
       </c>
@@ -1337,7 +1400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>14</v>
       </c>
@@ -1348,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>14</v>
       </c>
@@ -1359,7 +1422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>14</v>
       </c>
@@ -1370,7 +1433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>14</v>
       </c>
@@ -1381,7 +1444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>15</v>
       </c>
@@ -1392,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>15</v>
       </c>
@@ -1403,7 +1466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>15</v>
       </c>
@@ -1414,7 +1477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>15</v>
       </c>
@@ -1425,7 +1488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>16</v>
       </c>
@@ -1436,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>16</v>
       </c>
@@ -1447,7 +1510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>16</v>
       </c>
@@ -1458,7 +1521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>16</v>
       </c>
@@ -1469,7 +1532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>17</v>
       </c>
@@ -1480,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>17</v>
       </c>
@@ -1491,7 +1554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>18</v>
       </c>
@@ -1502,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>18</v>
       </c>
@@ -1513,7 +1576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>18</v>
       </c>
@@ -1524,7 +1587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>18</v>
       </c>
@@ -1535,7 +1598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>19</v>
       </c>
@@ -1546,7 +1609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>19</v>
       </c>
@@ -1557,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>19</v>
       </c>
@@ -1568,7 +1631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>19</v>
       </c>
@@ -1579,7 +1642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>20</v>
       </c>
@@ -1590,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>20</v>
       </c>
@@ -1601,7 +1664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>20</v>
       </c>
@@ -1612,7 +1675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>20</v>
       </c>
@@ -1623,7 +1686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>21</v>
       </c>
@@ -1634,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>21</v>
       </c>
@@ -1645,7 +1708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>21</v>
       </c>
@@ -1656,7 +1719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>21</v>
       </c>
@@ -1667,7 +1730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>22</v>
       </c>
@@ -1678,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>22</v>
       </c>
@@ -1689,7 +1752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>22</v>
       </c>
@@ -1700,7 +1763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>22</v>
       </c>
@@ -1711,7 +1774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>23</v>
       </c>
@@ -1722,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>23</v>
       </c>
@@ -1733,7 +1796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>23</v>
       </c>
@@ -1744,7 +1807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>23</v>
       </c>
@@ -1755,7 +1818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>24</v>
       </c>
@@ -1766,7 +1829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>24</v>
       </c>
@@ -1777,7 +1840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>25</v>
       </c>
@@ -1788,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>25</v>
       </c>
@@ -1799,7 +1862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>25</v>
       </c>
@@ -1810,7 +1873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>26</v>
       </c>
@@ -1821,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>26</v>
       </c>
@@ -1832,7 +1895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>26</v>
       </c>
@@ -1843,7 +1906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>26</v>
       </c>
@@ -1854,7 +1917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>27</v>
       </c>
@@ -1865,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>27</v>
       </c>
@@ -1876,7 +1939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>27</v>
       </c>
@@ -1887,7 +1950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>27</v>
       </c>
@@ -1898,7 +1961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>28</v>
       </c>
@@ -1909,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>28</v>
       </c>
@@ -1920,7 +1983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>28</v>
       </c>
@@ -1931,7 +1994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>28</v>
       </c>
@@ -1942,7 +2005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>29</v>
       </c>
@@ -1953,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>29</v>
       </c>
@@ -1964,7 +2027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>29</v>
       </c>
@@ -1975,7 +2038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>29</v>
       </c>
@@ -1986,7 +2049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>30</v>
       </c>
@@ -1997,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>30</v>
       </c>
@@ -2008,7 +2071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>30</v>
       </c>
@@ -2019,7 +2082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>30</v>
       </c>
@@ -2030,7 +2093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>31</v>
       </c>
@@ -2041,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>31</v>
       </c>
@@ -2052,7 +2115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>31</v>
       </c>
@@ -2063,7 +2126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>31</v>
       </c>
@@ -2074,7 +2137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>32</v>
       </c>
@@ -2085,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>32</v>
       </c>
@@ -2096,7 +2159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>32</v>
       </c>
@@ -2107,7 +2170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>33</v>
       </c>
@@ -2118,7 +2181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>33</v>
       </c>
@@ -2129,7 +2192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>33</v>
       </c>
@@ -2140,7 +2203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>33</v>
       </c>
@@ -2151,7 +2214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>34</v>
       </c>
@@ -2162,7 +2225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>34</v>
       </c>
@@ -2173,7 +2236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>34</v>
       </c>
@@ -2184,7 +2247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>34</v>
       </c>
@@ -2195,7 +2258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>35</v>
       </c>
@@ -2206,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>35</v>
       </c>
@@ -2217,7 +2280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>35</v>
       </c>
@@ -2228,7 +2291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>35</v>
       </c>
@@ -2239,7 +2302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>36</v>
       </c>
@@ -2250,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>36</v>
       </c>
@@ -2261,7 +2324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>36</v>
       </c>
@@ -2272,7 +2335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>36</v>
       </c>
@@ -2283,7 +2346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>37</v>
       </c>
@@ -2294,7 +2357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>37</v>
       </c>
@@ -2305,7 +2368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>37</v>
       </c>
@@ -2316,7 +2379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>37</v>
       </c>
@@ -2327,7 +2390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>38</v>
       </c>
@@ -2338,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>38</v>
       </c>
@@ -2349,7 +2412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>38</v>
       </c>
@@ -2360,7 +2423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>38</v>
       </c>
@@ -2371,7 +2434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>39</v>
       </c>
@@ -2382,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>39</v>
       </c>
@@ -2393,7 +2456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>39</v>
       </c>
@@ -2404,7 +2467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>39</v>
       </c>
@@ -2415,7 +2478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>40</v>
       </c>
@@ -2426,7 +2489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>40</v>
       </c>
@@ -2437,7 +2500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>40</v>
       </c>
@@ -2448,7 +2511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>40</v>
       </c>
@@ -2459,7 +2522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>41</v>
       </c>
@@ -2470,7 +2533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>41</v>
       </c>
@@ -2481,7 +2544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>41</v>
       </c>
@@ -2492,7 +2555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>41</v>
       </c>
@@ -2503,7 +2566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>42</v>
       </c>
@@ -2514,7 +2577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>42</v>
       </c>
@@ -2525,7 +2588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>42</v>
       </c>
@@ -2536,7 +2599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>42</v>
       </c>
@@ -2547,7 +2610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>43</v>
       </c>
@@ -2558,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>43</v>
       </c>
@@ -2569,7 +2632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>43</v>
       </c>
@@ -2580,7 +2643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>43</v>
       </c>
@@ -2591,7 +2654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>44</v>
       </c>
@@ -2602,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>44</v>
       </c>
@@ -2613,7 +2676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>44</v>
       </c>
@@ -2624,7 +2687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>44</v>
       </c>
@@ -2635,7 +2698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>45</v>
       </c>
@@ -2646,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>45</v>
       </c>
@@ -2657,7 +2720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>45</v>
       </c>
@@ -2668,7 +2731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>45</v>
       </c>
@@ -2679,7 +2742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>46</v>
       </c>
@@ -2690,7 +2753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>46</v>
       </c>
@@ -2701,7 +2764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>46</v>
       </c>
@@ -2712,7 +2775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>46</v>
       </c>
@@ -2723,7 +2786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>47</v>
       </c>
@@ -2734,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>47</v>
       </c>
@@ -2745,7 +2808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>47</v>
       </c>
@@ -2756,7 +2819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>47</v>
       </c>
@@ -2767,7 +2830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>48</v>
       </c>
@@ -2778,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>48</v>
       </c>
@@ -2789,7 +2852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>48</v>
       </c>
@@ -2800,7 +2863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>48</v>
       </c>
@@ -2811,7 +2874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>49</v>
       </c>
@@ -2822,7 +2885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>49</v>
       </c>
@@ -2833,7 +2896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>49</v>
       </c>
@@ -2844,7 +2907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>49</v>
       </c>
@@ -2855,7 +2918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>50</v>
       </c>
@@ -2866,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>50</v>
       </c>
@@ -2877,7 +2940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>50</v>
       </c>
@@ -2888,7 +2951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>50</v>
       </c>
@@ -2899,7 +2962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>51</v>
       </c>
@@ -2910,7 +2973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>51</v>
       </c>
@@ -2921,7 +2984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>51</v>
       </c>
@@ -2932,7 +2995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>51</v>
       </c>
@@ -2943,7 +3006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>52</v>
       </c>
@@ -2954,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>52</v>
       </c>
@@ -2965,7 +3028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>52</v>
       </c>
@@ -2976,7 +3039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>52</v>
       </c>
@@ -2987,7 +3050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>53</v>
       </c>
@@ -2998,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>53</v>
       </c>
@@ -3009,7 +3072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>53</v>
       </c>
@@ -3020,7 +3083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>53</v>
       </c>
@@ -3031,7 +3094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>54</v>
       </c>
@@ -3042,7 +3105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>54</v>
       </c>
@@ -3053,7 +3116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>54</v>
       </c>
@@ -3064,7 +3127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>54</v>
       </c>
@@ -3075,7 +3138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>55</v>
       </c>
@@ -3086,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>55</v>
       </c>
@@ -3097,7 +3160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>55</v>
       </c>
@@ -3108,7 +3171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>55</v>
       </c>
@@ -3119,7 +3182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>56</v>
       </c>
@@ -3130,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>56</v>
       </c>
@@ -3141,7 +3204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>56</v>
       </c>
@@ -3152,7 +3215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>56</v>
       </c>
@@ -3163,7 +3226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>57</v>
       </c>
@@ -3174,7 +3237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>57</v>
       </c>
@@ -3185,7 +3248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>58</v>
       </c>
@@ -3196,7 +3259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>58</v>
       </c>
@@ -3207,7 +3270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>58</v>
       </c>
@@ -3218,7 +3281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>58</v>
       </c>
@@ -3229,7 +3292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>59</v>
       </c>
@@ -3240,7 +3303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>59</v>
       </c>
@@ -3251,7 +3314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>59</v>
       </c>
@@ -3262,7 +3325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>59</v>
       </c>
@@ -3273,7 +3336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>60</v>
       </c>
@@ -3284,7 +3347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>60</v>
       </c>
@@ -3295,7 +3358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>60</v>
       </c>
@@ -3306,7 +3369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>60</v>
       </c>
@@ -3317,7 +3380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>61</v>
       </c>
@@ -3328,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>61</v>
       </c>
@@ -3339,7 +3402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>61</v>
       </c>
@@ -3350,7 +3413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>61</v>
       </c>
@@ -3361,7 +3424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>62</v>
       </c>
@@ -3372,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>62</v>
       </c>
@@ -3383,7 +3446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>62</v>
       </c>
@@ -3394,7 +3457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>62</v>
       </c>
@@ -3405,7 +3468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>63</v>
       </c>
@@ -3416,7 +3479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>63</v>
       </c>
@@ -3427,7 +3490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>63</v>
       </c>
@@ -3438,7 +3501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>63</v>
       </c>
@@ -3449,7 +3512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>64</v>
       </c>
@@ -3460,7 +3523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>64</v>
       </c>
@@ -3471,7 +3534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>65</v>
       </c>
@@ -3482,7 +3545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>66</v>
       </c>
@@ -3493,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>66</v>
       </c>
@@ -3504,7 +3567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>66</v>
       </c>
@@ -3515,7 +3578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>66</v>
       </c>
@@ -3526,7 +3589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>67</v>
       </c>
@@ -3537,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>67</v>
       </c>
@@ -3548,7 +3611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>67</v>
       </c>
@@ -3559,7 +3622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>67</v>
       </c>
@@ -3570,7 +3633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>68</v>
       </c>
@@ -3581,7 +3644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>68</v>
       </c>
@@ -3592,7 +3655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>68</v>
       </c>
@@ -3603,7 +3666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>68</v>
       </c>
@@ -3614,7 +3677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>69</v>
       </c>
@@ -3625,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>69</v>
       </c>
@@ -3636,7 +3699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>69</v>
       </c>
@@ -3647,7 +3710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>69</v>
       </c>
@@ -3658,7 +3721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>70</v>
       </c>
@@ -3669,7 +3732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>70</v>
       </c>
@@ -3680,7 +3743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>70</v>
       </c>
@@ -3691,7 +3754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>70</v>
       </c>
@@ -3702,7 +3765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>71</v>
       </c>
@@ -3713,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>71</v>
       </c>
@@ -3724,7 +3787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>71</v>
       </c>
@@ -3735,7 +3798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>71</v>
       </c>
@@ -3746,7 +3809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>72</v>
       </c>
@@ -3757,7 +3820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>73</v>
       </c>
@@ -3768,7 +3831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>73</v>
       </c>
@@ -3779,7 +3842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>73</v>
       </c>
@@ -3790,7 +3853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>74</v>
       </c>
@@ -3801,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>74</v>
       </c>
@@ -3812,7 +3875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>74</v>
       </c>
@@ -3823,7 +3886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>74</v>
       </c>
@@ -3834,7 +3897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>75</v>
       </c>
@@ -3845,7 +3908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>75</v>
       </c>
@@ -3856,7 +3919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>75</v>
       </c>
@@ -3867,7 +3930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>75</v>
       </c>
@@ -3878,7 +3941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>76</v>
       </c>
@@ -3889,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>76</v>
       </c>
@@ -3900,7 +3963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>76</v>
       </c>
@@ -3911,7 +3974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>76</v>
       </c>
@@ -3922,7 +3985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>77</v>
       </c>
@@ -3933,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>77</v>
       </c>
@@ -3944,7 +4007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>77</v>
       </c>
@@ -3955,7 +4018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>77</v>
       </c>
@@ -3966,7 +4029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>78</v>
       </c>
@@ -3977,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>78</v>
       </c>
@@ -3988,7 +4051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>78</v>
       </c>
@@ -3999,7 +4062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>79</v>
       </c>
@@ -4010,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>79</v>
       </c>
@@ -4021,7 +4084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>79</v>
       </c>
@@ -4032,7 +4095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>80</v>
       </c>
@@ -4043,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>80</v>
       </c>
@@ -4054,7 +4117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>80</v>
       </c>
@@ -4065,7 +4128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>80</v>
       </c>
@@ -4076,7 +4139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>81</v>
       </c>
@@ -4087,7 +4150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>81</v>
       </c>
@@ -4098,7 +4161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>81</v>
       </c>
@@ -4109,7 +4172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>81</v>
       </c>
@@ -4120,7 +4183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>82</v>
       </c>
@@ -4131,7 +4194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>82</v>
       </c>
@@ -4142,7 +4205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>82</v>
       </c>
@@ -4159,21 +4222,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -4181,977 +4246,1319 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
         <v>24</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="F2" s="6">
         <v>80</v>
       </c>
-      <c r="F2">
-        <f>E2^2</f>
+      <c r="G2" s="6">
+        <f>F2^2</f>
         <v>6400</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6">
         <v>23</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
+      <c r="F3" s="6">
         <v>500</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F9" si="0">E3^2</f>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G9" si="0">F3^2</f>
         <v>250000</v>
       </c>
-      <c r="G3">
+      <c r="H3" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6">
         <v>22</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
+      <c r="F4" s="6">
         <v>350</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="6">
         <f t="shared" si="0"/>
         <v>122500</v>
       </c>
-      <c r="G4">
+      <c r="H4" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6">
         <v>21</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
+      <c r="F5" s="6">
         <v>250</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>62500</v>
       </c>
-      <c r="G5">
+      <c r="H5" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6">
         <v>20</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
+      <c r="F6" s="6">
         <v>150</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>22500</v>
       </c>
-      <c r="G6">
+      <c r="H6" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6">
         <v>19</v>
       </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
+      <c r="F7" s="6">
         <v>150</v>
       </c>
-      <c r="F7">
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
         <v>22500</v>
       </c>
-      <c r="G7">
+      <c r="H7" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6">
         <v>18</v>
       </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
+      <c r="F8" s="6">
         <v>120</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="6">
         <f t="shared" si="0"/>
         <v>14400</v>
       </c>
-      <c r="G8">
+      <c r="H8" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6">
         <v>17</v>
       </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
+      <c r="F9" s="6">
         <v>120</v>
       </c>
-      <c r="F9">
+      <c r="G9" s="6">
         <f t="shared" si="0"/>
         <v>14400</v>
       </c>
-      <c r="G9">
+      <c r="H9" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
         <v>23</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="F10" s="8">
         <v>80</v>
       </c>
-      <c r="F10">
-        <f t="shared" ref="F10:F40" si="1">E10^2</f>
+      <c r="G10" s="8">
+        <f t="shared" ref="G10:G40" si="1">F10^2</f>
         <v>6400</v>
       </c>
-      <c r="G10">
+      <c r="H10" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8">
         <v>22</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="8">
+        <v>3</v>
+      </c>
+      <c r="F11" s="8">
         <v>80</v>
       </c>
-      <c r="F11">
+      <c r="G11" s="8">
         <f t="shared" si="1"/>
         <v>6400</v>
       </c>
-      <c r="G11">
+      <c r="H11" s="8">
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="8">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8">
         <v>21</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="8">
+        <v>4</v>
+      </c>
+      <c r="F12" s="8">
         <v>80</v>
       </c>
-      <c r="F12">
+      <c r="G12" s="8">
         <f t="shared" si="1"/>
         <v>6400</v>
       </c>
-      <c r="G12">
+      <c r="H12" s="8">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="8">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8">
         <v>19</v>
       </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
+      <c r="F13" s="8">
         <v>250</v>
       </c>
-      <c r="F13">
+      <c r="G13" s="8">
         <f t="shared" si="1"/>
         <v>62500</v>
       </c>
-      <c r="G13">
+      <c r="H13" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
         <v>5</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="8">
         <v>7</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="8">
         <v>18</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="8">
+        <v>7</v>
+      </c>
+      <c r="F14" s="8">
         <v>250</v>
       </c>
-      <c r="F14">
+      <c r="G14" s="8">
         <f t="shared" si="1"/>
         <v>62500</v>
       </c>
-      <c r="G14">
+      <c r="H14" s="8">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="8">
         <v>6</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="8">
         <v>8</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="8">
         <v>17</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="8">
+        <v>8</v>
+      </c>
+      <c r="F15" s="8">
         <v>250</v>
       </c>
-      <c r="F15">
+      <c r="G15" s="8">
         <f t="shared" si="1"/>
         <v>62500</v>
       </c>
-      <c r="G15">
+      <c r="H15" s="8">
         <v>9000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="8">
         <v>7</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="8">
+        <v>9</v>
+      </c>
+      <c r="D16" s="8">
+        <v>9</v>
+      </c>
+      <c r="E16" s="8">
         <v>15</v>
       </c>
-      <c r="D16">
-        <v>9</v>
-      </c>
-      <c r="E16">
+      <c r="F16" s="8">
         <v>150</v>
       </c>
-      <c r="F16">
+      <c r="G16" s="8">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="G16">
+      <c r="H16" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="8">
         <v>8</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="8">
         <v>11</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="8">
         <v>14</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="8">
+        <v>11</v>
+      </c>
+      <c r="F17" s="8">
         <v>150</v>
       </c>
-      <c r="F17">
+      <c r="G17" s="8">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="G17">
+      <c r="H17" s="8">
         <v>5000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="8">
         <v>9</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="8">
         <v>12</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="8">
         <v>13</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="8">
+        <v>12</v>
+      </c>
+      <c r="F18" s="8">
         <v>150</v>
       </c>
-      <c r="F18">
+      <c r="G18" s="8">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="G18">
+      <c r="H18" s="8">
         <v>9000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10">
         <v>20</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10">
         <v>500</v>
       </c>
-      <c r="F19">
+      <c r="G19" s="10">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
-      <c r="G19">
+      <c r="H19" s="10">
         <v>116000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="10">
+        <v>2</v>
+      </c>
+      <c r="C20" s="10">
         <v>7</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="10">
         <v>14</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="10">
+        <v>7</v>
+      </c>
+      <c r="F20" s="10">
         <v>250</v>
       </c>
-      <c r="F20">
+      <c r="G20" s="10">
         <f t="shared" si="1"/>
         <v>62500</v>
       </c>
-      <c r="G20">
+      <c r="H20" s="10">
         <v>116000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="12">
+        <v>1</v>
+      </c>
+      <c r="C21" s="12">
+        <v>2</v>
+      </c>
+      <c r="D21" s="12">
+        <v>2</v>
+      </c>
+      <c r="E21" s="12">
         <v>19</v>
       </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
+      <c r="F21" s="12">
         <v>350</v>
       </c>
-      <c r="F21">
+      <c r="G21" s="12">
         <f t="shared" si="1"/>
         <v>122500</v>
       </c>
-      <c r="G21">
+      <c r="H21" s="12">
         <v>116000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="12">
+        <v>2</v>
+      </c>
+      <c r="C22" s="12">
+        <v>8</v>
+      </c>
+      <c r="D22" s="12">
+        <v>8</v>
+      </c>
+      <c r="E22" s="12">
         <v>13</v>
       </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="E22">
+      <c r="F22" s="12">
         <v>150</v>
       </c>
-      <c r="F22">
+      <c r="G22" s="12">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="G22">
+      <c r="H22" s="12">
         <v>116000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
+      <c r="B23" s="14">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14">
+        <v>2</v>
+      </c>
+      <c r="D23" s="14">
         <v>20</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="14">
+        <v>2</v>
+      </c>
+      <c r="F23" s="14">
         <v>500</v>
       </c>
-      <c r="F23">
+      <c r="G23" s="14">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
-      <c r="G23">
+      <c r="H23" s="14">
         <v>16000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="14">
+        <v>2</v>
+      </c>
+      <c r="C24" s="14">
         <v>8</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="14">
         <v>14</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="14">
+        <v>8</v>
+      </c>
+      <c r="F24" s="14">
         <v>250</v>
       </c>
-      <c r="F24">
+      <c r="G24" s="14">
         <f t="shared" si="1"/>
         <v>62500</v>
       </c>
-      <c r="G24">
+      <c r="H24" s="14">
         <v>16000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="16">
+        <v>1</v>
+      </c>
+      <c r="C25" s="16">
+        <v>1</v>
+      </c>
+      <c r="D25" s="16">
+        <v>2</v>
+      </c>
+      <c r="E25" s="16">
         <v>20</v>
       </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
+      <c r="F25" s="16">
         <v>350</v>
       </c>
-      <c r="F25">
+      <c r="G25" s="16">
         <f t="shared" si="1"/>
         <v>122500</v>
       </c>
-      <c r="G25">
+      <c r="H25" s="16">
         <v>16000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="16">
+        <v>2</v>
+      </c>
+      <c r="C26" s="16">
+        <v>8</v>
+      </c>
+      <c r="D26" s="16">
+        <v>8</v>
+      </c>
+      <c r="E26" s="16">
         <v>14</v>
       </c>
-      <c r="D26">
-        <v>8</v>
-      </c>
-      <c r="E26">
+      <c r="F26" s="16">
         <v>150</v>
       </c>
-      <c r="F26">
+      <c r="G26" s="16">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="G26">
+      <c r="H26" s="16">
         <v>16000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6">
         <v>20</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="6">
+        <v>2</v>
+      </c>
+      <c r="F27" s="6">
         <v>350</v>
       </c>
-      <c r="F27">
+      <c r="G27" s="6">
         <f t="shared" si="1"/>
         <v>122500</v>
       </c>
-      <c r="G27">
+      <c r="H27" s="6">
         <v>16000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6">
         <v>8</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="6">
         <v>14</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="6">
+        <v>8</v>
+      </c>
+      <c r="F28" s="6">
         <v>150</v>
       </c>
-      <c r="F28">
+      <c r="G28" s="6">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="G28">
+      <c r="H28" s="6">
         <v>16000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8">
         <v>20</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
+      <c r="F29" s="8">
         <v>120</v>
       </c>
-      <c r="F29">
+      <c r="G29" s="8">
         <f t="shared" si="1"/>
         <v>14400</v>
       </c>
-      <c r="G29">
+      <c r="H29" s="8">
         <v>116000</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30">
+      <c r="B30" s="8">
+        <v>2</v>
+      </c>
+      <c r="C30" s="8">
+        <v>2</v>
+      </c>
+      <c r="D30" s="8">
         <v>19</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="8">
+        <v>2</v>
+      </c>
+      <c r="F30" s="8">
         <v>120</v>
       </c>
-      <c r="F30">
+      <c r="G30" s="8">
         <f t="shared" si="1"/>
         <v>14400</v>
       </c>
-      <c r="G30">
+      <c r="H30" s="8">
         <v>116000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="8">
+        <v>3</v>
+      </c>
+      <c r="C31" s="8">
+        <v>7</v>
+      </c>
+      <c r="D31" s="8">
+        <v>7</v>
+      </c>
+      <c r="E31" s="8">
         <v>14</v>
       </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-      <c r="E31">
+      <c r="F31" s="8">
         <v>150</v>
       </c>
-      <c r="F31">
+      <c r="G31" s="8">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="G31">
+      <c r="H31" s="8">
         <v>116000</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="8">
+        <v>4</v>
+      </c>
+      <c r="C32" s="8">
         <v>8</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="8">
         <v>13</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="8">
+        <v>8</v>
+      </c>
+      <c r="F32" s="8">
         <v>150</v>
       </c>
-      <c r="F32">
+      <c r="G32" s="8">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="G32">
+      <c r="H32" s="8">
         <v>116000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
+      <c r="B33" s="10">
+        <v>1</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10">
         <v>21</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
+      <c r="F33" s="10">
         <v>120</v>
       </c>
-      <c r="F33">
+      <c r="G33" s="10">
         <f t="shared" si="1"/>
         <v>14400</v>
       </c>
-      <c r="G33">
+      <c r="H33" s="10">
         <v>16000</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
+      <c r="B34" s="10">
+        <v>2</v>
+      </c>
+      <c r="C34" s="10">
+        <v>3</v>
+      </c>
+      <c r="D34" s="10">
         <v>19</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="10">
+        <v>3</v>
+      </c>
+      <c r="F34" s="10">
         <v>120</v>
       </c>
-      <c r="F34">
+      <c r="G34" s="10">
         <f t="shared" si="1"/>
         <v>14400</v>
       </c>
-      <c r="G34">
+      <c r="H34" s="10">
         <v>16000</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="10">
+        <v>3</v>
+      </c>
+      <c r="C35" s="10">
+        <v>7</v>
+      </c>
+      <c r="D35" s="10">
+        <v>7</v>
+      </c>
+      <c r="E35" s="10">
         <v>15</v>
       </c>
-      <c r="D35">
-        <v>7</v>
-      </c>
-      <c r="E35">
+      <c r="F35" s="10">
         <v>150</v>
       </c>
-      <c r="F35">
+      <c r="G35" s="10">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="G35">
+      <c r="H35" s="10">
         <v>16000</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="C36">
+      <c r="B36" s="10">
+        <v>4</v>
+      </c>
+      <c r="C36" s="10">
         <v>9</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="10">
         <v>13</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="10">
+        <v>9</v>
+      </c>
+      <c r="F36" s="10">
         <v>150</v>
       </c>
-      <c r="F36">
+      <c r="G36" s="10">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="G36">
+      <c r="H36" s="10">
         <v>16000</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="14">
+        <v>1</v>
+      </c>
+      <c r="C37" s="14">
+        <v>1</v>
+      </c>
+      <c r="D37" s="14">
+        <v>1</v>
+      </c>
+      <c r="E37" s="14">
         <v>20</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
+      <c r="F37" s="14">
         <v>120</v>
       </c>
-      <c r="F37">
+      <c r="G37" s="14">
         <f t="shared" si="1"/>
         <v>14400</v>
       </c>
-      <c r="G37">
+      <c r="H37" s="14">
         <v>66000</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
+      <c r="B38" s="14">
+        <v>2</v>
+      </c>
+      <c r="C38" s="14">
+        <v>2</v>
+      </c>
+      <c r="D38" s="14">
         <v>19</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="14">
+        <v>2</v>
+      </c>
+      <c r="F38" s="14">
         <v>150</v>
       </c>
-      <c r="F38">
+      <c r="G38" s="14">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="G38">
+      <c r="H38" s="14">
         <v>66000</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="14">
+        <v>3</v>
+      </c>
+      <c r="C39" s="14">
+        <v>7</v>
+      </c>
+      <c r="D39" s="14">
+        <v>7</v>
+      </c>
+      <c r="E39" s="14">
         <v>14</v>
       </c>
-      <c r="D39">
-        <v>7</v>
-      </c>
-      <c r="E39">
+      <c r="F39" s="14">
         <v>250</v>
       </c>
-      <c r="F39">
+      <c r="G39" s="14">
         <f t="shared" si="1"/>
         <v>62500</v>
       </c>
-      <c r="G39">
+      <c r="H39" s="14">
         <v>66000</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B40">
-        <v>4</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="14">
+        <v>4</v>
+      </c>
+      <c r="C40" s="14">
         <v>8</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="14">
         <v>13</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="14">
+        <v>8</v>
+      </c>
+      <c r="F40" s="14">
         <v>500</v>
       </c>
-      <c r="F40">
+      <c r="G40" s="14">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
-      <c r="G40">
+      <c r="H40" s="14">
         <v>66000</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="8">
+        <v>1</v>
+      </c>
+      <c r="C41" s="8">
+        <v>1</v>
+      </c>
+      <c r="D41" s="8">
+        <v>23</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1</v>
+      </c>
+      <c r="F41" s="8">
+        <v>80</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" ref="G41:G49" si="2">F41^2</f>
+        <v>6400</v>
+      </c>
+      <c r="H41" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="8">
+        <v>2</v>
+      </c>
+      <c r="C42" s="8">
+        <v>3</v>
+      </c>
+      <c r="D42" s="8">
+        <v>3</v>
+      </c>
+      <c r="E42" s="8">
+        <v>22</v>
+      </c>
+      <c r="F42" s="8">
+        <v>80</v>
+      </c>
+      <c r="G42" s="8">
+        <f t="shared" si="2"/>
+        <v>6400</v>
+      </c>
+      <c r="H42" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="8">
+        <v>3</v>
+      </c>
+      <c r="C43" s="8">
+        <v>4</v>
+      </c>
+      <c r="D43" s="8">
+        <v>4</v>
+      </c>
+      <c r="E43" s="8">
+        <v>21</v>
+      </c>
+      <c r="F43" s="8">
+        <v>80</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="2"/>
+        <v>6400</v>
+      </c>
+      <c r="H43" s="8">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="8">
+        <v>4</v>
+      </c>
+      <c r="C44" s="8">
+        <v>5</v>
+      </c>
+      <c r="D44" s="8">
+        <v>19</v>
+      </c>
+      <c r="E44" s="8">
+        <v>5</v>
+      </c>
+      <c r="F44" s="8">
+        <v>250</v>
+      </c>
+      <c r="G44" s="8">
+        <f t="shared" si="2"/>
+        <v>62500</v>
+      </c>
+      <c r="H44" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="8">
+        <v>5</v>
+      </c>
+      <c r="C45" s="8">
+        <v>7</v>
+      </c>
+      <c r="D45" s="8">
+        <v>7</v>
+      </c>
+      <c r="E45" s="8">
+        <v>18</v>
+      </c>
+      <c r="F45" s="8">
+        <v>250</v>
+      </c>
+      <c r="G45" s="8">
+        <f t="shared" si="2"/>
+        <v>62500</v>
+      </c>
+      <c r="H45" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="8">
+        <v>6</v>
+      </c>
+      <c r="C46" s="8">
+        <v>8</v>
+      </c>
+      <c r="D46" s="8">
+        <v>8</v>
+      </c>
+      <c r="E46" s="8">
+        <v>17</v>
+      </c>
+      <c r="F46" s="8">
+        <v>250</v>
+      </c>
+      <c r="G46" s="8">
+        <f t="shared" si="2"/>
+        <v>62500</v>
+      </c>
+      <c r="H46" s="8">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="8">
+        <v>7</v>
+      </c>
+      <c r="C47" s="8">
+        <v>9</v>
+      </c>
+      <c r="D47" s="8">
+        <v>15</v>
+      </c>
+      <c r="E47" s="8">
+        <v>9</v>
+      </c>
+      <c r="F47" s="8">
+        <v>150</v>
+      </c>
+      <c r="G47" s="8">
+        <f t="shared" si="2"/>
+        <v>22500</v>
+      </c>
+      <c r="H47" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="8">
+        <v>8</v>
+      </c>
+      <c r="C48" s="8">
+        <v>11</v>
+      </c>
+      <c r="D48" s="8">
+        <v>11</v>
+      </c>
+      <c r="E48" s="8">
+        <v>14</v>
+      </c>
+      <c r="F48" s="8">
+        <v>150</v>
+      </c>
+      <c r="G48" s="8">
+        <f t="shared" si="2"/>
+        <v>22500</v>
+      </c>
+      <c r="H48" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="8">
+        <v>9</v>
+      </c>
+      <c r="C49" s="8">
+        <v>12</v>
+      </c>
+      <c r="D49" s="8">
+        <v>12</v>
+      </c>
+      <c r="E49" s="8">
+        <v>13</v>
+      </c>
+      <c r="F49" s="8">
+        <v>150</v>
+      </c>
+      <c r="G49" s="8">
+        <f t="shared" si="2"/>
+        <v>22500</v>
+      </c>
+      <c r="H49" s="8">
+        <v>9000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5159,20 +5566,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5180,7 +5588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5188,7 +5596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5196,7 +5604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5204,7 +5612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5212,7 +5620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5220,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5228,7 +5636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5236,7 +5644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5244,7 +5652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5252,7 +5660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5260,7 +5668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5268,7 +5676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5276,7 +5684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5284,7 +5692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5292,7 +5700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5300,7 +5708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5308,7 +5716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -5316,7 +5724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5324,7 +5732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5332,7 +5740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5340,7 +5748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5348,7 +5756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5356,7 +5764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5364,7 +5772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -5372,7 +5780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -5380,7 +5788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -5388,7 +5796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5396,7 +5804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5404,7 +5812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5412,7 +5820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5420,7 +5828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -5428,7 +5836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -5436,7 +5844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -5444,7 +5852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -5452,7 +5860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -5460,7 +5868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -5468,7 +5876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -5476,7 +5884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -5484,7 +5892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -5492,7 +5900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -5500,7 +5908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -5508,7 +5916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -5516,7 +5924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -5524,7 +5932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5532,7 +5940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -5540,7 +5948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -5548,7 +5956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5556,7 +5964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -5564,7 +5972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -5572,7 +5980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -5580,7 +5988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -5588,7 +5996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -5596,7 +6004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -5604,7 +6012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -5612,7 +6020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -5620,7 +6028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -5628,7 +6036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -5636,7 +6044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -5644,7 +6052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -5652,7 +6060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -5660,7 +6068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -5668,7 +6076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -5676,7 +6084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -5684,7 +6092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -5692,7 +6100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5700,7 +6108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -5708,7 +6116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -5716,7 +6124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -5724,7 +6132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -5732,7 +6140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -5740,7 +6148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -5748,7 +6156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -5756,7 +6164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -5764,7 +6172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -5772,7 +6180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -5780,7 +6188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -5788,7 +6196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -5796,7 +6204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -5804,7 +6212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -5812,7 +6220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -5820,7 +6228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -5828,7 +6236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>82</v>
       </c>
